--- a/output/fit_clients/fit_round_128.xlsx
+++ b/output/fit_clients/fit_round_128.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1952719012.027823</v>
+        <v>2063913473.247916</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09364126846519751</v>
+        <v>0.09263938180263606</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03114032324237877</v>
+        <v>0.0447253444700817</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>976359495.2507772</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2468487410.543596</v>
+        <v>2577226448.070313</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1736364180221803</v>
+        <v>0.111716210357543</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04432038594745808</v>
+        <v>0.03810954659639937</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1234243817.829554</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3628563659.983459</v>
+        <v>4445169753.561581</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1238805482753938</v>
+        <v>0.1090479719152947</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02357883731976371</v>
+        <v>0.02539238080890312</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>46</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1814281817.801803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4233611251.80326</v>
+        <v>3173196042.265985</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07826431073036011</v>
+        <v>0.06984404221209349</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04910655335269535</v>
+        <v>0.03210669153253591</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2116805614.069598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2153912455.545101</v>
+        <v>2714737186.90788</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1253560204220665</v>
+        <v>0.1346165839677898</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04741227920488648</v>
+        <v>0.04239342689756925</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1076956240.665122</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1950824267.219734</v>
+        <v>2001969107.747119</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06250677195572117</v>
+        <v>0.09014163005534082</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04564496320159083</v>
+        <v>0.03755560569223342</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>37</v>
-      </c>
-      <c r="J7" t="n">
-        <v>975412199.4292731</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2684206047.747231</v>
+        <v>2698039200.056984</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1756562397675792</v>
+        <v>0.1668287992863371</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03066053518082259</v>
+        <v>0.02901495420089402</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>41</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1342103049.059767</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2141372168.595032</v>
+        <v>1537429438.942025</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1259107705565994</v>
+        <v>0.1983634697952633</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03301273814962594</v>
+        <v>0.02497867854628388</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1070686091.231109</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5213758584.16256</v>
+        <v>4308094101.618794</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1468916647243077</v>
+        <v>0.1969045599050849</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03659917046055506</v>
+        <v>0.04291793400040183</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>54</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2606879407.89894</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3902370605.037601</v>
+        <v>2770787270.868924</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1504548454964942</v>
+        <v>0.1416623665551436</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04206461805018442</v>
+        <v>0.03432615928162396</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>53</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1951185308.352104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2699808095.419684</v>
+        <v>2372020557.75562</v>
       </c>
       <c r="F12" t="n">
-        <v>0.154126562086736</v>
+        <v>0.1961679977596927</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03394692713550904</v>
+        <v>0.05380888961164076</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>45</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1349904038.191963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4322258849.190186</v>
+        <v>4407822001.345515</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07753876116667097</v>
+        <v>0.07989209723726182</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02025304826545511</v>
+        <v>0.02797329049063303</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>43</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2161129463.109869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3349988452.835452</v>
+        <v>3152661002.308189</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1838936866719753</v>
+        <v>0.1720895727128095</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03963366756800474</v>
+        <v>0.0346996311719882</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>41</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1674994235.463347</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1130585358.017521</v>
+        <v>1576518105.736537</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1081219154879031</v>
+        <v>0.09313214753032832</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03534542351542943</v>
+        <v>0.03839260366404498</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>565292680.7048322</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2493831728.119959</v>
+        <v>2479352975.524562</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09474587580333579</v>
+        <v>0.09412354598105785</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03897070090716828</v>
+        <v>0.04393449396691135</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>20</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1246915895.374363</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4246219354.716659</v>
+        <v>5180698615.97618</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1342707934499421</v>
+        <v>0.1244136708665898</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04767407304642027</v>
+        <v>0.03850543032297474</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>37</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2123109699.763151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3235927127.436375</v>
+        <v>2593863521.319726</v>
       </c>
       <c r="F18" t="n">
-        <v>0.141965561748972</v>
+        <v>0.1795202506418174</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02216212062418157</v>
+        <v>0.03208366900668869</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>42</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1617963576.809284</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1301690889.959016</v>
+        <v>1243288099.967012</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1493606594406795</v>
+        <v>0.1500252521534867</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02033449428017949</v>
+        <v>0.02207360871702955</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>650845547.6060822</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2274329612.042538</v>
+        <v>2595864783.140075</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1154799028965009</v>
+        <v>0.1277566941079494</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03021007223716208</v>
+        <v>0.01933187713803072</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>21</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1137164803.106561</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2523550058.57979</v>
+        <v>2074069612.855587</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07528311102803305</v>
+        <v>0.06504735602552519</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0391950384434744</v>
+        <v>0.03986242316723132</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1261775015.122989</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3521464510.888271</v>
+        <v>2836508530.759723</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1360716553746467</v>
+        <v>0.1264300625036181</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0573285941983665</v>
+        <v>0.03795754878229661</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>35</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1760732285.696815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1133863797.895932</v>
+        <v>1519726022.819894</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1597926844454444</v>
+        <v>0.18206149017944</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04412508603478796</v>
+        <v>0.04024670610567704</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>566931946.5252973</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2979258211.494038</v>
+        <v>3976466575.606618</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1400526352241691</v>
+        <v>0.1137751260270591</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03658043763922592</v>
+        <v>0.03577860637479469</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>37</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1489629142.329673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1371021528.410382</v>
+        <v>1071172003.709438</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08443679399672954</v>
+        <v>0.07566346218311092</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02934681887975246</v>
+        <v>0.02433818093833623</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>685510742.7777892</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>896683763.5504497</v>
+        <v>982831511.6686836</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1234040120475968</v>
+        <v>0.1102043369285539</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03523071054852289</v>
+        <v>0.03775158155460036</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>448341828.4968674</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3983630181.578249</v>
+        <v>3178109748.685919</v>
       </c>
       <c r="F27" t="n">
-        <v>0.143724779084329</v>
+        <v>0.1449624545911001</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0214673697716933</v>
+        <v>0.01834162583006103</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>29</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1991815101.706131</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3822495040.180384</v>
+        <v>2397508536.339425</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1214616810522298</v>
+        <v>0.1058092353494719</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03403955314636654</v>
+        <v>0.04340029769501903</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>41</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1911247602.637288</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5149470618.503692</v>
+        <v>4169657104.907456</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1279831645866313</v>
+        <v>0.120697130342263</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04377884234354733</v>
+        <v>0.04371745899622261</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>57</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2574735246.372728</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1887866020.661254</v>
+        <v>2384489777.891693</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09718226501937832</v>
+        <v>0.1158955049721209</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02730609416266743</v>
+        <v>0.03823043937832776</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>943933034.9565665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1410818171.128002</v>
+        <v>1332814903.797708</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06903906826179917</v>
+        <v>0.07240519627318819</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03487771807231529</v>
+        <v>0.03311145350377755</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>705408987.3604318</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1702812417.628482</v>
+        <v>1477945744.975021</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1174823166585816</v>
+        <v>0.09207614032877917</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0271340269110201</v>
+        <v>0.03474300546964591</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>851406319.0906645</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2609200486.9218</v>
+        <v>2404192010.608622</v>
       </c>
       <c r="F33" t="n">
-        <v>0.135140270538351</v>
+        <v>0.1438339574367306</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05547945615579449</v>
+        <v>0.04405394281459035</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>39</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1304600272.319394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1212666335.748707</v>
+        <v>1000017802.647648</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07816083315617918</v>
+        <v>0.1046159550001316</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02267540458949483</v>
+        <v>0.02462696956980781</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>606333170.8076571</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>835641179.4406635</v>
+        <v>1284438571.823692</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07932525466901355</v>
+        <v>0.07138866648193141</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04427959104350603</v>
+        <v>0.04158454835026362</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>417820644.299687</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2975349288.181321</v>
+        <v>2231235308.412634</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1507122942271205</v>
+        <v>0.1166385332863702</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02706763090767193</v>
+        <v>0.02570392738441662</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>32</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1487674627.940077</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2153485609.678909</v>
+        <v>2928551728.430323</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1029195498825809</v>
+        <v>0.08076206041417069</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02994090950166937</v>
+        <v>0.03405784871599809</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>33</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1076742853.182371</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1414698625.715961</v>
+        <v>1683689485.408748</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1038745415629073</v>
+        <v>0.08547516104320238</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02408913100095689</v>
+        <v>0.03938290690397086</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>707349374.113242</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1634660730.588895</v>
+        <v>2079376453.613746</v>
       </c>
       <c r="F39" t="n">
-        <v>0.177011635382937</v>
+        <v>0.1888581740219329</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02519725207138345</v>
+        <v>0.0326075669445185</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>817330415.2639147</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1795880798.512579</v>
+        <v>1403866006.362191</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1228077152250974</v>
+        <v>0.1129610753186088</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04464727828843814</v>
+        <v>0.05035390244928782</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>897940291.3427098</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2384156160.366752</v>
+        <v>2205510921.947936</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1304377581868849</v>
+        <v>0.1545989525035954</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03097632555794527</v>
+        <v>0.03262473488820282</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>33</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1192078116.753788</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3116614029.226957</v>
+        <v>3098127340.738925</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09772159296177096</v>
+        <v>0.1220869146210269</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03500171075706162</v>
+        <v>0.02912466074980369</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>43</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1558306983.031939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2812837007.286705</v>
+        <v>2212207801.541284</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1526601218718327</v>
+        <v>0.1607339580067272</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0192209166191631</v>
+        <v>0.0253626959051761</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>41</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1406418520.81083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1501089786.800367</v>
+        <v>1823184478.342924</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08816135007950797</v>
+        <v>0.09719419785607047</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02402601360477906</v>
+        <v>0.03362515889689065</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>750544900.1427778</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2321816739.803391</v>
+        <v>1867017422.044471</v>
       </c>
       <c r="F45" t="n">
-        <v>0.11964987112424</v>
+        <v>0.1853057662129978</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03458752424291882</v>
+        <v>0.05269241549331583</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1160908393.181815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4755744376.502508</v>
+        <v>4701215852.943583</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1453330565453539</v>
+        <v>0.1196868770864267</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0555650129814521</v>
+        <v>0.04615174455312126</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>46</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2377872201.002209</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3165554383.354672</v>
+        <v>4025903231.261803</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1429529836484117</v>
+        <v>0.1986542959598852</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05563520188633689</v>
+        <v>0.04908992980171079</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>34</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1582777143.488041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3530096772.792729</v>
+        <v>4509887322.319779</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07823746533436786</v>
+        <v>0.1087507806519441</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03111762259900435</v>
+        <v>0.02650862813589228</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>43</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1765048448.012478</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1301409730.143532</v>
+        <v>1784376879.981724</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1246291588726304</v>
+        <v>0.1908498298261078</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03401841821906706</v>
+        <v>0.04357073721157139</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>650704927.9359337</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3156679317.076331</v>
+        <v>2713599211.597722</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1301736701652409</v>
+        <v>0.1271431426290636</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03903198244986443</v>
+        <v>0.03359958016252123</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>44</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1578339707.163664</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1106944570.75828</v>
+        <v>942097665.6693733</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1932727066280355</v>
+        <v>0.125535439433463</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05395659302816719</v>
+        <v>0.03849429439483438</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>553472351.9432076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4896091320.0241</v>
+        <v>3964873133.959558</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09007575438834908</v>
+        <v>0.1301032130401832</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04552188191742505</v>
+        <v>0.06200616883995428</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>53</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2448045663.705046</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3737940737.377017</v>
+        <v>3692620924.521951</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1861691515051607</v>
+        <v>0.1715015319244733</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02378131387124031</v>
+        <v>0.02333794057309219</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>37</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1868970350.153767</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4852657452.300907</v>
+        <v>4005353908.964303</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1597839477015259</v>
+        <v>0.1695069856672899</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03490059833655933</v>
+        <v>0.03901212347944182</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>44</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2426328857.126064</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4247017352.47852</v>
+        <v>3061122040.978801</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1682948260370969</v>
+        <v>0.2214408147071699</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02194693635482263</v>
+        <v>0.02669153424830029</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>34</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2123508661.990206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1860085260.158797</v>
+        <v>1161015786.489116</v>
       </c>
       <c r="F56" t="n">
-        <v>0.164988182760445</v>
+        <v>0.1528635736405098</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05227678948441031</v>
+        <v>0.044969343436415</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>930042618.9555119</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3300588897.440935</v>
+        <v>2781866453.515617</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1599432152475069</v>
+        <v>0.1830482819907653</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01771918153086905</v>
+        <v>0.02349541168558547</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>41</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1650294478.318366</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1328577666.598283</v>
+        <v>1377960412.362419</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1913636874325602</v>
+        <v>0.1323814273620253</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03098865941443116</v>
+        <v>0.0297030961088378</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>664288880.0254167</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4337363552.547344</v>
+        <v>4799202320.059613</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1113533355407287</v>
+        <v>0.08246175052021081</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04377861197125531</v>
+        <v>0.04946367979019828</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>35</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2168681735.913713</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3073686164.966691</v>
+        <v>2418119612.69895</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1369997136414938</v>
+        <v>0.1952156584972803</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02371623361384074</v>
+        <v>0.02940628599818681</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>39</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1536843160.509665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2687177226.296176</v>
+        <v>3194190390.561787</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1219817288821828</v>
+        <v>0.1635717991889691</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02746138346043394</v>
+        <v>0.03118216152702655</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>43</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1343588623.064454</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2009856574.66156</v>
+        <v>1324331856.423878</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1539842544314463</v>
+        <v>0.1213989795314851</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04315329495550865</v>
+        <v>0.04579020098920902</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1004928346.853017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4116312854.919706</v>
+        <v>3767635770.711795</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09734571495456004</v>
+        <v>0.09132257873670034</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03302133581830625</v>
+        <v>0.03829421240095918</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>37</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2058156484.594067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4211675908.8463</v>
+        <v>4669836296.187097</v>
       </c>
       <c r="F64" t="n">
-        <v>0.179629145326321</v>
+        <v>0.1861684617309759</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02937762160832659</v>
+        <v>0.02500313191699016</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>40</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2105838005.12077</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5368048254.678706</v>
+        <v>3947375251.318399</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1645813434694077</v>
+        <v>0.1432168505440018</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01992631527438305</v>
+        <v>0.02940399258435325</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>46</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2684024064.229341</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5305242751.797853</v>
+        <v>5379703155.46718</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1599499205749016</v>
+        <v>0.1214672926510608</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04105662294014584</v>
+        <v>0.030988928213678</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>37</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2652621419.35299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3402377936.222823</v>
+        <v>3304692922.188463</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09767579060104732</v>
+        <v>0.06714106146909207</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04348582057129867</v>
+        <v>0.04364766475640364</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>39</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1701188952.269636</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3815214645.123644</v>
+        <v>4186582638.224267</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09816792342517221</v>
+        <v>0.09868528457040956</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04185724969887253</v>
+        <v>0.0336196725200557</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>41</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1907607307.107206</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2449515175.01446</v>
+        <v>1797594475.705177</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1652972776651658</v>
+        <v>0.1651445587730528</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04731952182087607</v>
+        <v>0.0385050224195673</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1224757650.552571</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2671840872.702892</v>
+        <v>2293545588.131945</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06631809271700424</v>
+        <v>0.06913011492341704</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04133292677215275</v>
+        <v>0.04415653533674586</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>38</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1335920392.002999</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5533545491.69481</v>
+        <v>3461021271.482183</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1781031724735143</v>
+        <v>0.1792997932267502</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02840916257682112</v>
+        <v>0.03180593673158744</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>47</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2766772891.311594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1797813817.491503</v>
+        <v>1656008595.23303</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0783628986532641</v>
+        <v>0.08610474258762531</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04111487455860181</v>
+        <v>0.03522922868153363</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>898906887.6487001</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3567171828.956008</v>
+        <v>2966736348.295218</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0897827887865601</v>
+        <v>0.08586800084643437</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04288805768060261</v>
+        <v>0.03324061775858204</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>48</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1783585858.495907</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3512434668.811399</v>
+        <v>3936866024.830234</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1367962775868887</v>
+        <v>0.1200427512092742</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02517207336903089</v>
+        <v>0.02973643078167764</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>44</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1756217355.455125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2152954675.214532</v>
+        <v>2346354403.336632</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1656254646506709</v>
+        <v>0.1027926954103675</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03151001265450093</v>
+        <v>0.03583186670756056</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1076477287.370754</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4362704119.265849</v>
+        <v>4297297038.905544</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1215364969804195</v>
+        <v>0.07780895338316597</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03321414478685981</v>
+        <v>0.03163025734234953</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>28</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2181352059.526677</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1880709493.983422</v>
+        <v>1626785913.684889</v>
       </c>
       <c r="F77" t="n">
-        <v>0.151299886934583</v>
+        <v>0.1515207360693521</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02010161880219275</v>
+        <v>0.02396728123804574</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>940354790.8451225</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4297372132.483549</v>
+        <v>4413666816.198548</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09854955839561443</v>
+        <v>0.121425682188175</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03473705973583067</v>
+        <v>0.03845089358763479</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>45</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2148686010.64992</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1896892717.142474</v>
+        <v>1229531040.939854</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1574824125646447</v>
+        <v>0.1549420421417051</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03669025800360307</v>
+        <v>0.04069954990921352</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>948446462.1197032</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5552394219.084611</v>
+        <v>4024533571.539063</v>
       </c>
       <c r="F80" t="n">
-        <v>0.084105166515603</v>
+        <v>0.07725632153903546</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02621607578345261</v>
+        <v>0.03837506044326409</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>27</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2776197186.165776</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5075630200.364388</v>
+        <v>5105409048.118523</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09981962061340235</v>
+        <v>0.1258392536314006</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02885944571771673</v>
+        <v>0.0251683165283287</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2537815103.262825</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3805059870.712859</v>
+        <v>3561708470.603466</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1432661175600598</v>
+        <v>0.157830741013639</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02424830604353893</v>
+        <v>0.01911354836399871</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1902529985.906326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1782891442.795195</v>
+        <v>2316932885.94748</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1032335539014611</v>
+        <v>0.1253701025142871</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02747186799961723</v>
+        <v>0.03744247407011272</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>891445679.592015</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1810432767.697717</v>
+        <v>1662483995.324321</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07427081271642329</v>
+        <v>0.08010467094236638</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03343699953245276</v>
+        <v>0.03340443158367853</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>905216416.5624332</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3486538393.520067</v>
+        <v>3335574814.29433</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1185707469759203</v>
+        <v>0.1713628871220288</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04968155368627449</v>
+        <v>0.03924139159925429</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>49</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1743269310.561025</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1809100623.745832</v>
+        <v>2195844466.940277</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1559729046482557</v>
+        <v>0.1627674280611807</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01972707219686388</v>
+        <v>0.01728682600145104</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>904550312.908021</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1174159839.330472</v>
+        <v>983038788.0232345</v>
       </c>
       <c r="F87" t="n">
-        <v>0.164262903725794</v>
+        <v>0.1510177331978104</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04377193599997228</v>
+        <v>0.03244857366511242</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>587079968.5717679</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2349465296.349578</v>
+        <v>2712446723.865987</v>
       </c>
       <c r="F88" t="n">
-        <v>0.130448863806497</v>
+        <v>0.1600331541254428</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03807891098190824</v>
+        <v>0.03462405020369882</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>51</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1174732614.281503</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2171266331.659661</v>
+        <v>2499262698.09502</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1577713608939152</v>
+        <v>0.1516154886488079</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02727153582090884</v>
+        <v>0.02622037206353364</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>45</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1085633264.642889</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2172022130.684825</v>
+        <v>2095808611.611643</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1109141803972905</v>
+        <v>0.08310375837241336</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03830860121021719</v>
+        <v>0.03640384343301432</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1086011167.005372</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1534861975.020368</v>
+        <v>1393801835.917722</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1352273617526391</v>
+        <v>0.1538806551843092</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04029884155595116</v>
+        <v>0.04890198988141906</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>767431021.7205826</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2192313384.667739</v>
+        <v>2629998656.54159</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07397556365050668</v>
+        <v>0.1023602041742109</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02986780302439544</v>
+        <v>0.03433106536495636</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>30</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1096156652.997856</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3613849520.885546</v>
+        <v>3307243754.606768</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1045901873987264</v>
+        <v>0.106274228361797</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04713120139816681</v>
+        <v>0.04607719375432928</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>40</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1806924785.957407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1811898205.808363</v>
+        <v>2447777072.063184</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1074035871000177</v>
+        <v>0.1049596681052348</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03329090348858809</v>
+        <v>0.02834033000318662</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>905949076.7051067</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2868486831.846091</v>
+        <v>2517209622.241167</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1133101639414641</v>
+        <v>0.08992755935794376</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03558332047602927</v>
+        <v>0.04855935370417735</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>31</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1434243425.171173</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1983985574.966293</v>
+        <v>2093650482.473693</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1195367173242486</v>
+        <v>0.1100358556529123</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03674418497381333</v>
+        <v>0.03825730954605778</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>991992776.1192889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4156364049.294563</v>
+        <v>4505291131.268682</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1123456625902785</v>
+        <v>0.1221454987178755</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02728237194365405</v>
+        <v>0.02338974348092867</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>43</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2078182093.557873</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3439550807.827582</v>
+        <v>3584056474.839077</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09129902718325293</v>
+        <v>0.1126817634515966</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02021124189732322</v>
+        <v>0.02219604827850166</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>34</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1719775418.362678</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3238977510.40611</v>
+        <v>2792679478.411738</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09195344029954053</v>
+        <v>0.09599025233609276</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0221740241488454</v>
+        <v>0.0303438081572689</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>40</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1619488758.426172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3708876611.938407</v>
+        <v>3117806471.296457</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1225847351931367</v>
+        <v>0.1662441216687499</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0207828707865044</v>
+        <v>0.02172179004087009</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>39</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1854438353.346148</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3082823940.218255</v>
+        <v>3580385277.09301</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1909195878463334</v>
+        <v>0.1461326877432934</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04733682055948689</v>
+        <v>0.05183815270232453</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>53</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1541412070.05099</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_128.xlsx
+++ b/output/fit_clients/fit_round_128.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2063913473.247916</v>
+        <v>1522781775.253195</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09263938180263606</v>
+        <v>0.07781354779175841</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0447253444700817</v>
+        <v>0.04426797416955535</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2577226448.070313</v>
+        <v>2470547142.712933</v>
       </c>
       <c r="F3" t="n">
-        <v>0.111716210357543</v>
+        <v>0.1751082955116435</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03810954659639937</v>
+        <v>0.04241634537363569</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4445169753.561581</v>
+        <v>4182851166.809737</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1090479719152947</v>
+        <v>0.1142267076275754</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02539238080890312</v>
+        <v>0.03757341791356669</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3173196042.265985</v>
+        <v>4223760834.7275</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06984404221209349</v>
+        <v>0.08226660941400138</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03210669153253591</v>
+        <v>0.03322515040527062</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2714737186.90788</v>
+        <v>2130495385.739215</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1346165839677898</v>
+        <v>0.1407962223945681</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04239342689756925</v>
+        <v>0.0484483080132697</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2001969107.747119</v>
+        <v>2333134833.464167</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09014163005534082</v>
+        <v>0.0946597471161074</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03755560569223342</v>
+        <v>0.03961949117427251</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2698039200.056984</v>
+        <v>3656412609.501738</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1668287992863371</v>
+        <v>0.1994330773172553</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02901495420089402</v>
+        <v>0.02152900498062876</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1537429438.942025</v>
+        <v>1616267090.356786</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1983634697952633</v>
+        <v>0.1585124012723753</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02497867854628388</v>
+        <v>0.02910039029584369</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4308094101.618794</v>
+        <v>5838240251.663939</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1969045599050849</v>
+        <v>0.1838425236447885</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04291793400040183</v>
+        <v>0.04753724812415605</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2770787270.868924</v>
+        <v>2929155241.360082</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1416623665551436</v>
+        <v>0.1835648618724924</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03432615928162396</v>
+        <v>0.03117246482885864</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2372020557.75562</v>
+        <v>2721428979.908293</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1961679977596927</v>
+        <v>0.1572475753545433</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05380888961164076</v>
+        <v>0.03804828758918973</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4407822001.345515</v>
+        <v>4466554071.421782</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07989209723726182</v>
+        <v>0.09117661650129125</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02797329049063303</v>
+        <v>0.02657003605277605</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3152661002.308189</v>
+        <v>3417627967.59914</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1720895727128095</v>
+        <v>0.1276976700504468</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0346996311719882</v>
+        <v>0.04288228591120975</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1576518105.736537</v>
+        <v>1587813724.030323</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09313214753032832</v>
+        <v>0.1012099363094414</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03839260366404498</v>
+        <v>0.03768228340628777</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2479352975.524562</v>
+        <v>2750891320.530275</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09412354598105785</v>
+        <v>0.1106875964595973</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04393449396691135</v>
+        <v>0.04967784947907122</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5180698615.97618</v>
+        <v>3732923006.919116</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1244136708665898</v>
+        <v>0.1750200993499721</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03850543032297474</v>
+        <v>0.041980569617772</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2593863521.319726</v>
+        <v>3857420531.405657</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1795202506418174</v>
+        <v>0.1269494617166758</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03208366900668869</v>
+        <v>0.02253791613206498</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1243288099.967012</v>
+        <v>1137967216.164797</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1500252521534867</v>
+        <v>0.186255002385945</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02207360871702955</v>
+        <v>0.01769581722634645</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2595864783.140075</v>
+        <v>1725740660.432075</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1277566941079494</v>
+        <v>0.1435468911634758</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01933187713803072</v>
+        <v>0.02249544685061685</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2074069612.855587</v>
+        <v>2258536966.101591</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06504735602552519</v>
+        <v>0.1019347835678759</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03986242316723132</v>
+        <v>0.04623601508588863</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2836508530.759723</v>
+        <v>4002149488.715402</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1264300625036181</v>
+        <v>0.1272497872753593</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03795754878229661</v>
+        <v>0.03546683439907189</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1519726022.819894</v>
+        <v>1020533221.268753</v>
       </c>
       <c r="F23" t="n">
-        <v>0.18206149017944</v>
+        <v>0.1561202082490483</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04024670610567704</v>
+        <v>0.04537791907321454</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3976466575.606618</v>
+        <v>3072740588.043863</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1137751260270591</v>
+        <v>0.1224963919591139</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03577860637479469</v>
+        <v>0.02900088507436237</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1071172003.709438</v>
+        <v>946660811.0782058</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07566346218311092</v>
+        <v>0.1096314627943466</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02433818093833623</v>
+        <v>0.0187226256242061</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>982831511.6686836</v>
+        <v>1178712799.334138</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1102043369285539</v>
+        <v>0.1025277843173205</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03775158155460036</v>
+        <v>0.03308331129462573</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3178109748.685919</v>
+        <v>3748718665.58798</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1449624545911001</v>
+        <v>0.1127730101330786</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01834162583006103</v>
+        <v>0.02572224325901198</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2397508536.339425</v>
+        <v>2634709064.792689</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1058092353494719</v>
+        <v>0.1161033938804008</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04340029769501903</v>
+        <v>0.04514510498621607</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4169657104.907456</v>
+        <v>4344909086.549007</v>
       </c>
       <c r="F29" t="n">
-        <v>0.120697130342263</v>
+        <v>0.1076616707417814</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04371745899622261</v>
+        <v>0.02949657948260722</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2384489777.891693</v>
+        <v>1524859885.106311</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1158955049721209</v>
+        <v>0.1336745021959554</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03823043937832776</v>
+        <v>0.02525596505149959</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1332814903.797708</v>
+        <v>1040654502.644733</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07240519627318819</v>
+        <v>0.08619769294787535</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03311145350377755</v>
+        <v>0.03717313322149761</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1477945744.975021</v>
+        <v>1642402078.195377</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09207614032877917</v>
+        <v>0.07524306960589312</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03474300546964591</v>
+        <v>0.03096778979508832</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2404192010.608622</v>
+        <v>2773485409.914316</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1438339574367306</v>
+        <v>0.142741933537759</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04405394281459035</v>
+        <v>0.05393754605459963</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1000017802.647648</v>
+        <v>1508655866.624928</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1046159550001316</v>
+        <v>0.08942751176580808</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02462696956980781</v>
+        <v>0.02562517362426844</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1284438571.823692</v>
+        <v>897620346.3443328</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07138866648193141</v>
+        <v>0.07277396560425302</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04158454835026362</v>
+        <v>0.04439967681676018</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,16 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2231235308.412634</v>
+        <v>2681922692.711459</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1166385332863702</v>
+        <v>0.1435644679008993</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02570392738441662</v>
+        <v>0.01982057245755993</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2928551728.430323</v>
+        <v>2423841932.607031</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08076206041417069</v>
+        <v>0.06814906293992536</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03405784871599809</v>
+        <v>0.02722692578712508</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1683689485.408748</v>
+        <v>1943990328.286999</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08547516104320238</v>
+        <v>0.1085213791765405</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03938290690397086</v>
+        <v>0.026012650174912</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2079376453.613746</v>
+        <v>1589947608.289841</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1888581740219329</v>
+        <v>0.1480258515498573</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0326075669445185</v>
+        <v>0.02224783783951921</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1403866006.362191</v>
+        <v>1307409384.72864</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1129610753186088</v>
+        <v>0.1494465336030131</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05035390244928782</v>
+        <v>0.05079052369925995</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2205510921.947936</v>
+        <v>1991193444.372475</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1545989525035954</v>
+        <v>0.1640216221896778</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03262473488820282</v>
+        <v>0.04482528049767272</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3098127340.738925</v>
+        <v>2798157679.664639</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1220869146210269</v>
+        <v>0.1079227245232474</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02912466074980369</v>
+        <v>0.03746837399322431</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2212207801.541284</v>
+        <v>2736837632.462395</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1607339580067272</v>
+        <v>0.1760207474356303</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0253626959051761</v>
+        <v>0.02494523330685064</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1823184478.342924</v>
+        <v>1563273569.653933</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09719419785607047</v>
+        <v>0.1018296377717924</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03362515889689065</v>
+        <v>0.02597573401024619</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1867017422.044471</v>
+        <v>2525983322.113162</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1853057662129978</v>
+        <v>0.1553524797608691</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05269241549331583</v>
+        <v>0.03969695547604752</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4701215852.943583</v>
+        <v>4082992907.761093</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1196868770864267</v>
+        <v>0.1616715518402267</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04615174455312126</v>
+        <v>0.05230502088642789</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4025903231.261803</v>
+        <v>3390972282.434545</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1986542959598852</v>
+        <v>0.1473994196759995</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04908992980171079</v>
+        <v>0.04372534575798562</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4509887322.319779</v>
+        <v>4721829359.569662</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1087507806519441</v>
+        <v>0.08384653400542244</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02650862813589228</v>
+        <v>0.03800249428415359</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1784376879.981724</v>
+        <v>1449882692.553234</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1908498298261078</v>
+        <v>0.163750065308731</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04357073721157139</v>
+        <v>0.04071419649826838</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2713599211.597722</v>
+        <v>2879626303.889888</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1271431426290636</v>
+        <v>0.1121118311632387</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03359958016252123</v>
+        <v>0.05289123677986282</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>942097665.6693733</v>
+        <v>1050446134.441894</v>
       </c>
       <c r="F51" t="n">
-        <v>0.125535439433463</v>
+        <v>0.164209457027372</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03849429439483438</v>
+        <v>0.03797709286974549</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3964873133.959558</v>
+        <v>3319618739.315376</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1301032130401832</v>
+        <v>0.09822948283217293</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06200616883995428</v>
+        <v>0.03894270738136268</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3692620924.521951</v>
+        <v>3668820410.809772</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1715015319244733</v>
+        <v>0.2001134282971641</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02333794057309219</v>
+        <v>0.0270489574754435</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4005353908.964303</v>
+        <v>4062682717.203916</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1695069856672899</v>
+        <v>0.1240011837977389</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03901212347944182</v>
+        <v>0.04448024474352057</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3061122040.978801</v>
+        <v>3227014948.194649</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2214408147071699</v>
+        <v>0.2171325719512363</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02669153424830029</v>
+        <v>0.02126746324294898</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1161015786.489116</v>
+        <v>1752331329.473527</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1528635736405098</v>
+        <v>0.1648326286809678</v>
       </c>
       <c r="G56" t="n">
-        <v>0.044969343436415</v>
+        <v>0.04388612955230099</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2781866453.515617</v>
+        <v>4549923478.637069</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1830482819907653</v>
+        <v>0.1640447729151477</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02349541168558547</v>
+        <v>0.0200795871087009</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1377960412.362419</v>
+        <v>1288349010.923285</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1323814273620253</v>
+        <v>0.1986530606566357</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0297030961088378</v>
+        <v>0.02424134234141647</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4799202320.059613</v>
+        <v>3918923547.096025</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08246175052021081</v>
+        <v>0.1301778501658931</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04946367979019828</v>
+        <v>0.0395318321234398</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2418119612.69895</v>
+        <v>2771782004.901189</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1952156584972803</v>
+        <v>0.1383566984164549</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02940628599818681</v>
+        <v>0.02921700946464765</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3194190390.561787</v>
+        <v>2300956243.833441</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1635717991889691</v>
+        <v>0.1738150110175024</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03118216152702655</v>
+        <v>0.03124837474703332</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1324331856.423878</v>
+        <v>1761486584.262758</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1213989795314851</v>
+        <v>0.1430815901955096</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04579020098920902</v>
+        <v>0.03626963532126718</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3767635770.711795</v>
+        <v>3650109443.589985</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09132257873670034</v>
+        <v>0.07665920484327399</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03829421240095918</v>
+        <v>0.04274808003076922</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4669836296.187097</v>
+        <v>4218893735.874587</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1861684617309759</v>
+        <v>0.141429209679751</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02500313191699016</v>
+        <v>0.03257078732352146</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3947375251.318399</v>
+        <v>5711581327.574967</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1432168505440018</v>
+        <v>0.1625792923464082</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02940399258435325</v>
+        <v>0.01987208266995411</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5379703155.46718</v>
+        <v>4898040422.510719</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1214672926510608</v>
+        <v>0.1306376173795193</v>
       </c>
       <c r="G66" t="n">
-        <v>0.030988928213678</v>
+        <v>0.04581055672260904</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3304692922.188463</v>
+        <v>2213627398.769327</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06714106146909207</v>
+        <v>0.07567478953121488</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04364766475640364</v>
+        <v>0.03601260842524941</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4186582638.224267</v>
+        <v>4540385411.109697</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09868528457040956</v>
+        <v>0.1499590502356584</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0336196725200557</v>
+        <v>0.04923397141343205</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1797594475.705177</v>
+        <v>1991069439.505341</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1651445587730528</v>
+        <v>0.1734758235319208</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0385050224195673</v>
+        <v>0.04974750676325441</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2293545588.131945</v>
+        <v>2695245073.909413</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06913011492341704</v>
+        <v>0.07228541652071156</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04415653533674586</v>
+        <v>0.04698793612425009</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3461021271.482183</v>
+        <v>5455184162.114851</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1792997932267502</v>
+        <v>0.1745613717179789</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03180593673158744</v>
+        <v>0.0312571101477833</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1656008595.23303</v>
+        <v>1679395305.978977</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08610474258762531</v>
+        <v>0.09234610243930522</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03522922868153363</v>
+        <v>0.045951920479575</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2966736348.295218</v>
+        <v>3497273805.414011</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08586800084643437</v>
+        <v>0.1078654235040369</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03324061775858204</v>
+        <v>0.05036677128533512</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3936866024.830234</v>
+        <v>3320333952.836954</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1200427512092742</v>
+        <v>0.1653155395696693</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02973643078167764</v>
+        <v>0.0251622782878119</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2346354403.336632</v>
+        <v>2329311040.434167</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1027926954103675</v>
+        <v>0.1173226013385932</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03583186670756056</v>
+        <v>0.03367793619000829</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4297297038.905544</v>
+        <v>5029907831.508222</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07780895338316597</v>
+        <v>0.09364141852924955</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03163025734234953</v>
+        <v>0.02559889618435519</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1626785913.684889</v>
+        <v>2036590388.753364</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1515207360693521</v>
+        <v>0.1287032392886151</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02396728123804574</v>
+        <v>0.02667497905636557</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4413666816.198548</v>
+        <v>4777462902.244802</v>
       </c>
       <c r="F78" t="n">
-        <v>0.121425682188175</v>
+        <v>0.1100284560312029</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03845089358763479</v>
+        <v>0.0415224121474166</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1229531040.939854</v>
+        <v>1643594513.189843</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1549420421417051</v>
+        <v>0.1382273523994484</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04069954990921352</v>
+        <v>0.03890312415727151</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4024533571.539063</v>
+        <v>5193357892.219537</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07725632153903546</v>
+        <v>0.0681429027668453</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03837506044326409</v>
+        <v>0.03105049051558322</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5105409048.118523</v>
+        <v>4074600631.577132</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1258392536314006</v>
+        <v>0.1221156806704768</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0251683165283287</v>
+        <v>0.0327041304762645</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3561708470.603466</v>
+        <v>3551305273.343328</v>
       </c>
       <c r="F82" t="n">
-        <v>0.157830741013639</v>
+        <v>0.1528939489615149</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01911354836399871</v>
+        <v>0.01979029802168385</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2316932885.94748</v>
+        <v>1584091554.061968</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1253701025142871</v>
+        <v>0.1460440709937927</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03744247407011272</v>
+        <v>0.04559772658212392</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1662483995.324321</v>
+        <v>2011962428.268546</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08010467094236638</v>
+        <v>0.1075397344280532</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03340443158367853</v>
+        <v>0.04983545009994551</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3335574814.29433</v>
+        <v>3475090022.106184</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1713628871220288</v>
+        <v>0.141480131543303</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03924139159925429</v>
+        <v>0.04811842051204267</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2195844466.940277</v>
+        <v>2378321553.11582</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1627674280611807</v>
+        <v>0.1398801827454114</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01728682600145104</v>
+        <v>0.02475494185430663</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>983038788.0232345</v>
+        <v>1389907970.790521</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1510177331978104</v>
+        <v>0.1465445492431409</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03244857366511242</v>
+        <v>0.03248401422022436</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2712446723.865987</v>
+        <v>2638754461.220642</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1600331541254428</v>
+        <v>0.1165999895103606</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03462405020369882</v>
+        <v>0.0260266696963557</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2499262698.09502</v>
+        <v>2133878140.64793</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1516154886488079</v>
+        <v>0.1518163390546942</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02622037206353364</v>
+        <v>0.02983693094982884</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2095808611.611643</v>
+        <v>1853651478.480791</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08310375837241336</v>
+        <v>0.09468631513665446</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03640384343301432</v>
+        <v>0.04902613256325863</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1393801835.917722</v>
+        <v>1757243598.379806</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1538806551843092</v>
+        <v>0.1365482676811378</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04890198988141906</v>
+        <v>0.05430275807642546</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2629998656.54159</v>
+        <v>2188192606.466747</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1023602041742109</v>
+        <v>0.1030466704999805</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03433106536495636</v>
+        <v>0.02884241480660191</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3307243754.606768</v>
+        <v>3750439378.999926</v>
       </c>
       <c r="F93" t="n">
-        <v>0.106274228361797</v>
+        <v>0.1235616765093062</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04607719375432928</v>
+        <v>0.04559364390565684</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2447777072.063184</v>
+        <v>1806165001.280568</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1049596681052348</v>
+        <v>0.1406111181859954</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02834033000318662</v>
+        <v>0.03153743481232935</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2517209622.241167</v>
+        <v>2073187214.109719</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08992755935794376</v>
+        <v>0.09092108085718771</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04855935370417735</v>
+        <v>0.04559795920223472</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2093650482.473693</v>
+        <v>2376319557.161525</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1100358556529123</v>
+        <v>0.1179445217270968</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03825730954605778</v>
+        <v>0.03389135661100952</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4505291131.268682</v>
+        <v>4413087010.890982</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1221454987178755</v>
+        <v>0.1400702126385308</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02338974348092867</v>
+        <v>0.02719704477257462</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3584056474.839077</v>
+        <v>2820101055.145172</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1126817634515966</v>
+        <v>0.08435904426825559</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02219604827850166</v>
+        <v>0.02683050819251868</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2792679478.411738</v>
+        <v>2799603372.504097</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09599025233609276</v>
+        <v>0.1369901279662042</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0303438081572689</v>
+        <v>0.0250137794598126</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3117806471.296457</v>
+        <v>3707557482.365634</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1662441216687499</v>
+        <v>0.1726086730042469</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02172179004087009</v>
+        <v>0.02366474177320877</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3580385277.09301</v>
+        <v>3014492603.509959</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1461326877432934</v>
+        <v>0.1636283965173714</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05183815270232453</v>
+        <v>0.05015122795538244</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_128.xlsx
+++ b/output/fit_clients/fit_round_128.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1522781775.253195</v>
+        <v>2296292769.85973</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07781354779175841</v>
+        <v>0.07211757265568881</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04426797416955535</v>
+        <v>0.02736861309044036</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2470547142.712933</v>
+        <v>1639185213.803651</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1751082955116435</v>
+        <v>0.1655617670788236</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04241634537363569</v>
+        <v>0.0475890533366872</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4182851166.809737</v>
+        <v>4663869231.810093</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1142267076275754</v>
+        <v>0.1491279659798828</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03757341791356669</v>
+        <v>0.02978155885229393</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>76</v>
+      </c>
+      <c r="J4" t="n">
+        <v>128</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4223760834.7275</v>
+        <v>3878920857.652039</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08226660941400138</v>
+        <v>0.1059749669726376</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03322515040527062</v>
+        <v>0.04361391358132275</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>51</v>
+      </c>
+      <c r="J5" t="n">
+        <v>128</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2130495385.739215</v>
+        <v>2602721335.144955</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1407962223945681</v>
+        <v>0.1197573286677891</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0484483080132697</v>
+        <v>0.04929886778982531</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2333134833.464167</v>
+        <v>2762131958.809481</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0946597471161074</v>
+        <v>0.07492200511985328</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03961949117427251</v>
+        <v>0.04609066802370432</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3656412609.501738</v>
+        <v>3230337995.237138</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1994330773172553</v>
+        <v>0.1802936463897107</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02152900498062876</v>
+        <v>0.03100951031865899</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>37</v>
+      </c>
+      <c r="J8" t="n">
+        <v>125</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1616267090.356786</v>
+        <v>1783551608.571457</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1585124012723753</v>
+        <v>0.1670996890365169</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02910039029584369</v>
+        <v>0.03691245327038219</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5838240251.663939</v>
+        <v>5412813526.854982</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1838425236447885</v>
+        <v>0.1796175016740545</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04753724812415605</v>
+        <v>0.03444563109356045</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>117</v>
+      </c>
+      <c r="J10" t="n">
+        <v>128</v>
+      </c>
+      <c r="K10" t="n">
+        <v>163.2100076694219</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2929155241.360082</v>
+        <v>3799719981.45764</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1835648618724924</v>
+        <v>0.1856568406937759</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03117246482885864</v>
+        <v>0.04685817942519249</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>54</v>
+      </c>
+      <c r="J11" t="n">
+        <v>128</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2721428979.908293</v>
+        <v>2941878781.217746</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1572475753545433</v>
+        <v>0.1410468734979831</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03804828758918973</v>
+        <v>0.03975000377955368</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4466554071.421782</v>
+        <v>3639652412.810538</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09117661650129125</v>
+        <v>0.08015186377422269</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02657003605277605</v>
+        <v>0.0229105510892816</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>62</v>
+      </c>
+      <c r="J13" t="n">
+        <v>128</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +923,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3417627967.59914</v>
+        <v>3144157293.765498</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1276976700504468</v>
+        <v>0.1588280709477016</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04288228591120975</v>
+        <v>0.0286079094729499</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>124</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1587813724.030323</v>
+        <v>1817986917.980019</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1012099363094414</v>
+        <v>0.08882762649005109</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03768228340628777</v>
+        <v>0.04153719304681133</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2750891320.530275</v>
+        <v>2460139271.404459</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1106875964595973</v>
+        <v>0.1065541238577887</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04967784947907122</v>
+        <v>0.05021849798827607</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1022,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3732923006.919116</v>
+        <v>4153373779.866642</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1750200993499721</v>
+        <v>0.1395694010346369</v>
       </c>
       <c r="G17" t="n">
-        <v>0.041980569617772</v>
+        <v>0.0392788250947655</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>62</v>
+      </c>
+      <c r="J17" t="n">
+        <v>127</v>
+      </c>
+      <c r="K17" t="n">
+        <v>132.2602218544425</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1065,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3857420531.405657</v>
+        <v>3504247530.417784</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1269494617166758</v>
+        <v>0.1792959535025669</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02253791613206498</v>
+        <v>0.02203570044120414</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>34</v>
+      </c>
+      <c r="J18" t="n">
+        <v>126</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1137967216.164797</v>
+        <v>1116069505.97256</v>
       </c>
       <c r="F19" t="n">
-        <v>0.186255002385945</v>
+        <v>0.1492937802017442</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01769581722634645</v>
+        <v>0.02280988202634286</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1135,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1725740660.432075</v>
+        <v>2630482952.054721</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1435468911634758</v>
+        <v>0.1587817669352782</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02249544685061685</v>
+        <v>0.02499325743404757</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2258536966.101591</v>
+        <v>2736417337.232133</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1019347835678759</v>
+        <v>0.09455447454943264</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04623601508588863</v>
+        <v>0.04484610334793157</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4002149488.715402</v>
+        <v>3495635593.946028</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1272497872753593</v>
+        <v>0.1264575487435666</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03546683439907189</v>
+        <v>0.03707670520580717</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>33</v>
+      </c>
+      <c r="J22" t="n">
+        <v>123</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1020533221.268753</v>
+        <v>1104996563.295674</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1561202082490483</v>
+        <v>0.1788261885269563</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04537791907321454</v>
+        <v>0.05420055480463375</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1269,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3072740588.043863</v>
+        <v>4153884425.573401</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1224963919591139</v>
+        <v>0.09320237769883345</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02900088507436237</v>
+        <v>0.0362799893033835</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>38</v>
+      </c>
+      <c r="J24" t="n">
+        <v>127</v>
+      </c>
+      <c r="K24" t="n">
+        <v>134.3704261067629</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>946660811.0782058</v>
+        <v>1303578673.001877</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1096314627943466</v>
+        <v>0.08168215787009429</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0187226256242061</v>
+        <v>0.02441269209416793</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1178712799.334138</v>
+        <v>900338859.1873596</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1025277843173205</v>
+        <v>0.121119205147666</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03308331129462573</v>
+        <v>0.03762603815529569</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3748718665.58798</v>
+        <v>3879419979.42626</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1127730101330786</v>
+        <v>0.1215448829531657</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02572224325901198</v>
+        <v>0.02670948130980963</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>50</v>
+      </c>
+      <c r="J27" t="n">
+        <v>128</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1411,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2634709064.792689</v>
+        <v>2613789281.339822</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1161033938804008</v>
+        <v>0.1427695884928488</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04514510498621607</v>
+        <v>0.04410306641123266</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>28</v>
+      </c>
+      <c r="J28" t="n">
+        <v>127</v>
+      </c>
+      <c r="K28" t="n">
+        <v>61.83367993435384</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4344909086.549007</v>
+        <v>4742977109.059032</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1076616707417814</v>
+        <v>0.1405758818423975</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02949657948260722</v>
+        <v>0.04204247334139176</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>118</v>
+      </c>
+      <c r="J29" t="n">
+        <v>128</v>
+      </c>
+      <c r="K29" t="n">
+        <v>173.5672281531838</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1524859885.106311</v>
+        <v>1893276799.617421</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1336745021959554</v>
+        <v>0.09789262932616827</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02525596505149959</v>
+        <v>0.03602220890177998</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1040654502.644733</v>
+        <v>1193542184.42511</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08619769294787535</v>
+        <v>0.06759380038794881</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03717313322149761</v>
+        <v>0.04165255346787154</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1642402078.195377</v>
+        <v>1870480840.464984</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07524306960589312</v>
+        <v>0.07833279198112696</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03096778979508832</v>
+        <v>0.02501501602979075</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2773485409.914316</v>
+        <v>2210526678.72002</v>
       </c>
       <c r="F33" t="n">
-        <v>0.142741933537759</v>
+        <v>0.1992078841065456</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05393754605459963</v>
+        <v>0.03991744376050839</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1508655866.624928</v>
+        <v>1226278653.718447</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08942751176580808</v>
+        <v>0.09588994515029202</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02562517362426844</v>
+        <v>0.01921594692217283</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>897620346.3443328</v>
+        <v>828300977.675411</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07277396560425302</v>
+        <v>0.08888151513691804</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04439967681676018</v>
+        <v>0.02805936700146205</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2681922692.711459</v>
+        <v>2353348089.060814</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1435644679008993</v>
+        <v>0.1148085252323387</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01982057245755993</v>
+        <v>0.02016125704424437</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2423841932.607031</v>
+        <v>1860953166.353472</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06814906293992536</v>
+        <v>0.07098815272881652</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02722692578712508</v>
+        <v>0.03193842966901744</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1943990328.286999</v>
+        <v>1348718171.623116</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1085213791765405</v>
+        <v>0.07711175290767169</v>
       </c>
       <c r="G38" t="n">
-        <v>0.026012650174912</v>
+        <v>0.02960638737161354</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1589947608.289841</v>
+        <v>1924017378.601963</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1480258515498573</v>
+        <v>0.1387737137138696</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02224783783951921</v>
+        <v>0.02673689570364162</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1307409384.72864</v>
+        <v>1301941001.958355</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1494465336030131</v>
+        <v>0.144982221683805</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05079052369925995</v>
+        <v>0.05987001529383522</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1991193444.372475</v>
+        <v>2638980236.663209</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1640216221896778</v>
+        <v>0.1158420745526616</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04482528049767272</v>
+        <v>0.04522967305172549</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2798157679.664639</v>
+        <v>4362963934.687749</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1079227245232474</v>
+        <v>0.1151113975707844</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03746837399322431</v>
+        <v>0.03897542961533106</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>47</v>
+      </c>
+      <c r="J42" t="n">
+        <v>128</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2736837632.462395</v>
+        <v>2464482564.843331</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1760207474356303</v>
+        <v>0.1494447178318449</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02494523330685064</v>
+        <v>0.02201279959328958</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1563273569.653933</v>
+        <v>1779546388.85814</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1018296377717924</v>
+        <v>0.07158794497268633</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02597573401024619</v>
+        <v>0.03217004098268827</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2525983322.113162</v>
+        <v>2199869647.212988</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1553524797608691</v>
+        <v>0.1883465098026082</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03969695547604752</v>
+        <v>0.05175905605896715</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2045,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4082992907.761093</v>
+        <v>4544907067.130125</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1616715518402267</v>
+        <v>0.1558592758857596</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05230502088642789</v>
+        <v>0.05663732453765179</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>73</v>
+      </c>
+      <c r="J46" t="n">
+        <v>128</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3390972282.434545</v>
+        <v>3152538390.316728</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1473994196759995</v>
+        <v>0.1924395913555479</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04372534575798562</v>
+        <v>0.04835157091081235</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>57</v>
+      </c>
+      <c r="J47" t="n">
+        <v>127</v>
+      </c>
+      <c r="K47" t="n">
+        <v>74.20952360117842</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4721829359.569662</v>
+        <v>4050347146.958607</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08384653400542244</v>
+        <v>0.07722474487917821</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03800249428415359</v>
+        <v>0.03223111632296206</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>50</v>
+      </c>
+      <c r="J48" t="n">
+        <v>128</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1449882692.553234</v>
+        <v>1454484002.806338</v>
       </c>
       <c r="F49" t="n">
-        <v>0.163750065308731</v>
+        <v>0.1315702046851754</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04071419649826838</v>
+        <v>0.04416123143415622</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2187,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2879626303.889888</v>
+        <v>2622885661.939</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1121118311632387</v>
+        <v>0.1744088715160159</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05289123677986282</v>
+        <v>0.05134012795209233</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>44</v>
+      </c>
+      <c r="J50" t="n">
+        <v>127</v>
+      </c>
+      <c r="K50" t="n">
+        <v>62.44454525207998</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1050446134.441894</v>
+        <v>1539208912.102628</v>
       </c>
       <c r="F51" t="n">
-        <v>0.164209457027372</v>
+        <v>0.1244042498946919</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03797709286974549</v>
+        <v>0.0465819143753028</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2265,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3319618739.315376</v>
+        <v>3686637696.230075</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09822948283217293</v>
+        <v>0.108394004541562</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03894270738136268</v>
+        <v>0.04882946656817606</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>98</v>
+      </c>
+      <c r="J52" t="n">
+        <v>127</v>
+      </c>
+      <c r="K52" t="n">
+        <v>125.9005100780209</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3668820410.809772</v>
+        <v>3053234086.201047</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2001134282971641</v>
+        <v>0.1955549900740437</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0270489574754435</v>
+        <v>0.02973840277513143</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>15</v>
+      </c>
+      <c r="J53" t="n">
+        <v>125</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4062682717.203916</v>
+        <v>4505992555.144354</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1240011837977389</v>
+        <v>0.1556666049313903</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04448024474352057</v>
+        <v>0.04934153415988344</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>58</v>
+      </c>
+      <c r="J54" t="n">
+        <v>128</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3227014948.194649</v>
+        <v>4030162899.139656</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2171325719512363</v>
+        <v>0.2224658944756556</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02126746324294898</v>
+        <v>0.03042680780593839</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>59</v>
+      </c>
+      <c r="J55" t="n">
+        <v>127</v>
+      </c>
+      <c r="K55" t="n">
+        <v>136.6896734425758</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1752331329.473527</v>
+        <v>1589352883.702314</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1648326286809678</v>
+        <v>0.1541351721099088</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04388612955230099</v>
+        <v>0.05315305263677342</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4549923478.637069</v>
+        <v>4397821660.528357</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1640447729151477</v>
+        <v>0.1343080591178771</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0200795871087009</v>
+        <v>0.0183899992598901</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>50</v>
+      </c>
+      <c r="J57" t="n">
+        <v>128</v>
+      </c>
+      <c r="K57" t="n">
+        <v>140.9963733383409</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1288349010.923285</v>
+        <v>1603368579.270641</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1986530606566357</v>
+        <v>0.1612596124270405</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02424134234141647</v>
+        <v>0.02591066951642562</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2516,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3918923547.096025</v>
+        <v>3329305358.79961</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1301778501658931</v>
+        <v>0.09831659401270879</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0395318321234398</v>
+        <v>0.03244028948731138</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>62</v>
+      </c>
+      <c r="J59" t="n">
+        <v>126</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2771782004.901189</v>
+        <v>3788756472.55907</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1383566984164549</v>
+        <v>0.165520282244648</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02921700946464765</v>
+        <v>0.03158945936468104</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>20</v>
+      </c>
+      <c r="J60" t="n">
+        <v>127</v>
+      </c>
+      <c r="K60" t="n">
+        <v>129.2968629349501</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2300956243.833441</v>
+        <v>2563124742.525969</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1738150110175024</v>
+        <v>0.165779088047536</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03124837474703332</v>
+        <v>0.02245749448033552</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1761486584.262758</v>
+        <v>1736392061.960357</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1430815901955096</v>
+        <v>0.1647252216002812</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03626963532126718</v>
+        <v>0.03655837230866614</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2658,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3650109443.589985</v>
+        <v>5567451882.837571</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07665920484327399</v>
+        <v>0.1024420214309123</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04274808003076922</v>
+        <v>0.0378091229358632</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>63</v>
+      </c>
+      <c r="J63" t="n">
+        <v>128</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4218893735.874587</v>
+        <v>5326485234.205777</v>
       </c>
       <c r="F64" t="n">
-        <v>0.141429209679751</v>
+        <v>0.1326221560330383</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03257078732352146</v>
+        <v>0.03490304186917467</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>63</v>
+      </c>
+      <c r="J64" t="n">
+        <v>128</v>
+      </c>
+      <c r="K64" t="n">
+        <v>142.05401713758</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5711581327.574967</v>
+        <v>4864007437.740515</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1625792923464082</v>
+        <v>0.1458602300848385</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01987208266995411</v>
+        <v>0.02956162279815756</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>106</v>
+      </c>
+      <c r="J65" t="n">
+        <v>128</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4898040422.510719</v>
+        <v>5433439113.054594</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1306376173795193</v>
+        <v>0.126369464702747</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04581055672260904</v>
+        <v>0.03670701937392366</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>63</v>
+      </c>
+      <c r="J66" t="n">
+        <v>127</v>
+      </c>
+      <c r="K66" t="n">
+        <v>137.0922150766253</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2213627398.769327</v>
+        <v>3332863087.11387</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07567478953121488</v>
+        <v>0.06966749995240339</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03601260842524941</v>
+        <v>0.03439365909169912</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2837,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4540385411.109697</v>
+        <v>5332712187.88149</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1499590502356584</v>
+        <v>0.1595636703127336</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04923397141343205</v>
+        <v>0.03431543844411623</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>64</v>
+      </c>
+      <c r="J68" t="n">
+        <v>128</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1991069439.505341</v>
+        <v>1758580083.638113</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1734758235319208</v>
+        <v>0.1774867733586846</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04974750676325441</v>
+        <v>0.05570418989466561</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2695245073.909413</v>
+        <v>3007626544.184139</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07228541652071156</v>
+        <v>0.08508575865312556</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04698793612425009</v>
+        <v>0.04796655657985831</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>15</v>
+      </c>
+      <c r="J70" t="n">
+        <v>125</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5455184162.114851</v>
+        <v>3728115502.195485</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1745613717179789</v>
+        <v>0.1657990307257236</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0312571101477833</v>
+        <v>0.02073059862121413</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>104</v>
+      </c>
+      <c r="J71" t="n">
+        <v>127</v>
+      </c>
+      <c r="K71" t="n">
+        <v>128.6802361748264</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1679395305.978977</v>
+        <v>1457210946.891486</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09234610243930522</v>
+        <v>0.0914699297743146</v>
       </c>
       <c r="G72" t="n">
-        <v>0.045951920479575</v>
+        <v>0.03942757150923056</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3497273805.414011</v>
+        <v>2368656364.354053</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1078654235040369</v>
+        <v>0.07727048649230468</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05036677128533512</v>
+        <v>0.03623364729794444</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3320333952.836954</v>
+        <v>3231608857.595034</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1653155395696693</v>
+        <v>0.1607741427668962</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0251622782878119</v>
+        <v>0.03505620592753381</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>42</v>
+      </c>
+      <c r="J74" t="n">
+        <v>123</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2329311040.434167</v>
+        <v>2071339601.548679</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1173226013385932</v>
+        <v>0.1075029805805025</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03367793619000829</v>
+        <v>0.02409050928303273</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5029907831.508222</v>
+        <v>4910561525.417547</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09364141852924955</v>
+        <v>0.09903703493211233</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02559889618435519</v>
+        <v>0.03380766549353163</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>59</v>
+      </c>
+      <c r="J76" t="n">
+        <v>128</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2036590388.753364</v>
+        <v>1539113352.617095</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1287032392886151</v>
+        <v>0.1733466149213056</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02667497905636557</v>
+        <v>0.03086161428354751</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4777462902.244802</v>
+        <v>3574431061.47463</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1100284560312029</v>
+        <v>0.08726928035825188</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0415224121474166</v>
+        <v>0.04274153884194199</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>63</v>
+      </c>
+      <c r="J78" t="n">
+        <v>127</v>
+      </c>
+      <c r="K78" t="n">
+        <v>120.3624403271907</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1643594513.189843</v>
+        <v>1199743788.392272</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1382273523994484</v>
+        <v>0.1775696386881859</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03890312415727151</v>
+        <v>0.02620029265551654</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5193357892.219537</v>
+        <v>4008820784.191407</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0681429027668453</v>
+        <v>0.100199583914531</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03105049051558322</v>
+        <v>0.0384122620165235</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>62</v>
+      </c>
+      <c r="J80" t="n">
+        <v>127</v>
+      </c>
+      <c r="K80" t="n">
+        <v>108.8882723966109</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4074600631.577132</v>
+        <v>4045733926.9051</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1221156806704768</v>
+        <v>0.127005981776673</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0327041304762645</v>
+        <v>0.02023889844510484</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>58</v>
+      </c>
+      <c r="J81" t="n">
+        <v>127</v>
+      </c>
+      <c r="K81" t="n">
+        <v>126.0339657766307</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3551305273.343328</v>
+        <v>5544969831.907567</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1528939489615149</v>
+        <v>0.1779319394250657</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01979029802168385</v>
+        <v>0.02384139243767319</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>89</v>
+      </c>
+      <c r="J82" t="n">
+        <v>128</v>
+      </c>
+      <c r="K82" t="n">
+        <v>157.3757290263164</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1584091554.061968</v>
+        <v>2207960077.505801</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1460440709937927</v>
+        <v>0.1318795333838778</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04559772658212392</v>
+        <v>0.0401684427981514</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2011962428.268546</v>
+        <v>2349728493.721489</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1075397344280532</v>
+        <v>0.1188118133919398</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04983545009994551</v>
+        <v>0.03685969005015838</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3475090022.106184</v>
+        <v>3267883017.536804</v>
       </c>
       <c r="F85" t="n">
-        <v>0.141480131543303</v>
+        <v>0.1732604540357155</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04811842051204267</v>
+        <v>0.03681215355262608</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2378321553.11582</v>
+        <v>2339969064.633667</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1398801827454114</v>
+        <v>0.1076368120381062</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02475494185430663</v>
+        <v>0.02373809355016585</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1389907970.790521</v>
+        <v>1114555862.668411</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1465445492431409</v>
+        <v>0.1216050686672229</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03248401422022436</v>
+        <v>0.0297710904093342</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2638754461.220642</v>
+        <v>2474085458.320533</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1165999895103606</v>
+        <v>0.1158252167729643</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0260266696963557</v>
+        <v>0.02986925882359588</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>18</v>
+      </c>
+      <c r="J88" t="n">
+        <v>122</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2133878140.64793</v>
+        <v>2990619861.510141</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1518163390546942</v>
+        <v>0.09902463560466167</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02983693094982884</v>
+        <v>0.04070745325755671</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1853651478.480791</v>
+        <v>1709821861.355716</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09468631513665446</v>
+        <v>0.1048248228682188</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04902613256325863</v>
+        <v>0.05296741609464008</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1757243598.379806</v>
+        <v>1447773584.621463</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1365482676811378</v>
+        <v>0.1320378817776278</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05430275807642546</v>
+        <v>0.06048301558204242</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2188192606.466747</v>
+        <v>2088049053.069298</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1030466704999805</v>
+        <v>0.09158803399157699</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02884241480660191</v>
+        <v>0.04638144922095239</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3750439378.999926</v>
+        <v>4196989692.239335</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1235616765093062</v>
+        <v>0.09965670023341347</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04559364390565684</v>
+        <v>0.05094640724436872</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>58</v>
+      </c>
+      <c r="J93" t="n">
+        <v>127</v>
+      </c>
+      <c r="K93" t="n">
+        <v>138.6287472702225</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1806165001.280568</v>
+        <v>2153581787.832715</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1406111181859954</v>
+        <v>0.1308827076746628</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03153743481232935</v>
+        <v>0.02828786097890087</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,16 +3794,25 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2073187214.109719</v>
+        <v>2763290489.355779</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09092108085718771</v>
+        <v>0.1344580382863581</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04559795920223472</v>
+        <v>0.0442801222789658</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="n">
+        <v>58.14484233045193</v>
       </c>
     </row>
     <row r="96">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2376319557.161525</v>
+        <v>1963448091.47573</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1179445217270968</v>
+        <v>0.1126585649984984</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03389135661100952</v>
+        <v>0.04354087212767668</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4413087010.890982</v>
+        <v>5111778032.581223</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1400702126385308</v>
+        <v>0.1675749134074214</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02719704477257462</v>
+        <v>0.02853089946271762</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>61</v>
+      </c>
+      <c r="J97" t="n">
+        <v>128</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2820101055.145172</v>
+        <v>3624955647.54508</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08435904426825559</v>
+        <v>0.08085743593983757</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02683050819251868</v>
+        <v>0.03288894138061358</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>30</v>
+      </c>
+      <c r="J98" t="n">
+        <v>126</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2799603372.504097</v>
+        <v>2251235433.172984</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1369901279662042</v>
+        <v>0.1106796515815973</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0250137794598126</v>
+        <v>0.03183133041792263</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3707557482.365634</v>
+        <v>4421938385.556097</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1726086730042469</v>
+        <v>0.1746955396437418</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02366474177320877</v>
+        <v>0.02112548118583892</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>52</v>
+      </c>
+      <c r="J100" t="n">
+        <v>128</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3014492603.509959</v>
+        <v>3183383624.403042</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1636283965173714</v>
+        <v>0.2147614834385424</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05015122795538244</v>
+        <v>0.05802448771934882</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>119</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
